--- a/1-game/Docent - Nakijkmodel Python Game.xlsx
+++ b/1-game/Docent - Nakijkmodel Python Game.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gee/Library/CloudStorage/OneDrive-SharedLibraries-Stanislascollege/Vakgroep Informatica Stanislascollege Westplantsoen - Documenten/Vakverbetering/hv4 python game opdracht versie 2425/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gee/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FE589A-0CB4-3E44-8E2F-B21ACF72A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9EC22-1DA9-5D48-93C0-52367A465D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="2420" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="2180" windowWidth="34560" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Score-havo" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>Namen</t>
   </si>
@@ -161,15 +161,6 @@
   </si>
   <si>
     <t>Punten vwo</t>
-  </si>
-  <si>
-    <t>Basiscode</t>
-  </si>
-  <si>
-    <t>Uitbreidingen (maantjes)</t>
-  </si>
-  <si>
-    <t>Uitbreidingen (zonnetjes)</t>
   </si>
   <si>
     <t>4 (havo) of 3 (vwo) punten per bullet</t>
@@ -204,18 +195,6 @@
     <t>Normering (voor docent)</t>
   </si>
   <si>
-    <t>Elk maantje 1 punt. 
-- Maximaal 10 punten voor kleinere uitbreidingen (1 maantje), om alle punten te halen zijn dus ook grote uitbreidingen (2 maantjes) nodig
-- Voor technieken die niet goed zijn toegepast worden geen punten toegekend. 
-- De normering kun je aanpassen per klas, bijvoorbeeld als een klas minder lestijd heeft gehad.</t>
-  </si>
-  <si>
-    <t>Elk zonnetje 1 punt. 
-- Maximaal 10 punten voor kleinere uitbreidingen (1 zonnetje), om alle punten te halen zijn dus ook grote uitbreidingen (2 maantjes) nodig
-- Voor functionaliteit die niet goed werkt worden geen punten toegekend. 
-- De normering kun je aanpassen per klas, bijvoorbeeld als een klas minder lestijd heeft gehad.</t>
-  </si>
-  <si>
     <t>- Netjes uitgelijnd, 
 - helder commentaar, 
 - logische naamgeving van variabelen, 
@@ -223,17 +202,6 @@
 - consistente code.</t>
   </si>
   <si>
-    <t>- If-opdrachten goed toegepast, vergelijkingsoperatoren &lt;/&gt;/== gebruikt, logische operatoren and/or gebruikt, 
-- lijsten toegepast, 
-- for (of while)-opdrachten toegepast, 
-- code kan omgaan met verschillende lengtes van lijsten (len goed gebruikt),
-- code wijzigt aantal elementen in lijst tijdens het runnen.</t>
-  </si>
-  <si>
-    <t>- Uitbreidingen gemaakt met technieken die in de opdracht behandeld zijn, zoals meer loops, meer lijsten, meer functies (1 maantje)
-- uitbreidingen gemaakt met technieken die niet in de opdracht behandeld zijn en je je zelfstandig hebt eigen gemaakt, zoals dicts, geneste loop, lijst in lijst (2 maantjes).</t>
-  </si>
-  <si>
     <t>- geen glitches
 - soepele bediening</t>
   </si>
@@ -245,11 +213,6 @@
 - blokken verdwijnen, je kunt af gaan en winnen.</t>
   </si>
   <si>
-    <t>Uitbreidingen in het spel die zorgen voor diversiteit en hoe beter je wordt hoe leuker of moeilijker het wordt, 
-- voorbeelden van kleine uitbreidingen (1 zonnetje) zijn steeds snellere bal, verschillende kleuren blokken,
-- voorbeelden van grotere uitbreidingen (2 zonnetjes) zijn meer levels, ingewikkelde powerups zoals blokken wegschieten, veel ballen.</t>
-  </si>
-  <si>
     <t>Uit de commits en/of tijdens de les blijkt dat het stappenplan gevolgd is en dat er regelmatig is gewerkt.</t>
   </si>
   <si>
@@ -272,16 +235,53 @@
     <t>1 + behaalde punten / 10</t>
   </si>
   <si>
-    <t>Uitbreidingen (Zonnetjes)</t>
-  </si>
-  <si>
-    <t>versie 15 juli 2024 (verwerkt 2 juni 2025)</t>
-  </si>
-  <si>
     <t>PO Python Game VWO</t>
   </si>
   <si>
     <t>PO Python Game HAVO</t>
+  </si>
+  <si>
+    <t>Basistest</t>
+  </si>
+  <si>
+    <t>Individuele toets in Woots. Geef 3 momenten (tijdens de les) om de toets te maken. Van de eerste twee pogingen die een leerling doet telt het hoogste cijfer. Toets niet maken is 0 punten. Doel van de test is leerlingen eruit filteren die wel de antwoorden hebben, maar niet de stof begrijpen.</t>
+  </si>
+  <si>
+    <t>- Score op test met multiple-choice vragen over de basisstappen (zonder uitbreidingen)</t>
+  </si>
+  <si>
+    <t>Beoordeel dit op basis van het lijstje in uitbreidingen.md, controleer runnende webshop en code, dezelfde uitbreiding meerdere keren onder andere vlag opgevoerd telt maar één keer</t>
+  </si>
+  <si>
+    <t>Eenvoudige uitbreidingen</t>
+  </si>
+  <si>
+    <t>- Eenvoudige uitbreidingen zijn uitbreidingen van één of twee sterren. Elke ster is een punt.</t>
+  </si>
+  <si>
+    <t>1 punt per ster, met een maximum van 15 (havo) of 20 (vwo) punten
+- Uitbreidingen van 1 ster zijn uitbreidingen gemaakt met technieken die in de opdracht behandeld zijn, zoals meer artikelen, meer 1:n relaties, meer n:m relaties
+- Uitbreidingen van 2 sterren hebben daarnaast veel toegevoegde waarde voor gebruikers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingewikkelder uitbreidingen </t>
+  </si>
+  <si>
+    <t>- Ingewikkelder uitbreidingen zijn uitbreidingen van drie of vier sterren. Elke ster is een punt.</t>
+  </si>
+  <si>
+    <t>1 punt per ster, met een maximum van 15 (havo) of 20 (vwo) punten.
+- Uitbreidingen van 3 sterren hebben een substantiele omvang (meer dan enkele alineas code) en zijn gemaakt met ingewikkelder technieken die je jezelf hebt aangeleerd, zoals een pagina met inlogmogelijkheid waarmee de beheerder dingen kan aanpassen
+-  Uitbreidingen van 4 sterren hebben daarnaast veel toegevoegde waarde voor gebruikers.</t>
+  </si>
+  <si>
+    <t>Kleine uitbreidingen</t>
+  </si>
+  <si>
+    <t>Grote uitbreidingen</t>
+  </si>
+  <si>
+    <t>versie 27 december 2025</t>
   </si>
 </sst>
 </file>
@@ -335,7 +335,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +512,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -605,12 +611,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -650,9 +650,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -673,15 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -701,6 +689,45 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1010,461 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="12" width="4.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="123" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="72">
-        <v>10</v>
-      </c>
-      <c r="E5" s="72">
-        <v>5</v>
-      </c>
-      <c r="F5" s="72">
-        <v>20</v>
-      </c>
-      <c r="G5" s="72">
-        <v>15</v>
-      </c>
-      <c r="H5" s="72">
-        <v>5</v>
-      </c>
-      <c r="I5" s="72">
-        <v>20</v>
-      </c>
-      <c r="J5" s="72">
-        <v>15</v>
-      </c>
-      <c r="K5" s="72">
-        <v>5</v>
-      </c>
-      <c r="L5" s="72">
-        <v>5</v>
-      </c>
-      <c r="M5" s="70"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66">
-        <f t="shared" ref="C6:C21" si="0">SUM(D6:M6)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="35"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="68"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="68"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="68"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="35"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="68"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="68"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800B56EF-4C6A-F944-B910-28526DEF1789}">
-  <dimension ref="A1:M21"/>
-  <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1478,12 +1052,12 @@
   <sheetData>
     <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -1491,25 +1065,25 @@
       <c r="B3" s="8"/>
       <c r="C3" s="14"/>
       <c r="D3" s="34"/>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="61" t="s">
+      <c r="F3" s="68"/>
+      <c r="G3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="69"/>
+      <c r="K3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="L3" s="69"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="123" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="106" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="6"/>
       <c r="C4" s="10"/>
@@ -1520,24 +1094,24 @@
         <v>37</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="64" t="s">
+      <c r="I4" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="58" t="s">
         <v>38</v>
       </c>
       <c r="M4" s="10" t="s">
@@ -1545,63 +1119,63 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="66">
         <v>10</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="66">
         <v>5</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="66">
+        <v>20</v>
+      </c>
+      <c r="G5" s="66">
+        <v>5</v>
+      </c>
+      <c r="H5" s="66">
+        <v>20</v>
+      </c>
+      <c r="I5" s="66">
         <v>15</v>
       </c>
-      <c r="G5" s="72">
-        <v>20</v>
-      </c>
-      <c r="H5" s="72">
+      <c r="J5" s="66">
+        <v>15</v>
+      </c>
+      <c r="K5" s="66">
         <v>5</v>
       </c>
-      <c r="I5" s="72">
-        <v>15</v>
-      </c>
-      <c r="J5" s="72">
-        <v>20</v>
-      </c>
-      <c r="K5" s="72">
+      <c r="L5" s="66">
         <v>5</v>
       </c>
-      <c r="L5" s="72">
-        <v>5</v>
-      </c>
-      <c r="M5" s="70"/>
+      <c r="M5" s="64"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66">
+      <c r="B6" s="59"/>
+      <c r="C6" s="60">
         <f t="shared" ref="C6:C21" si="0">SUM(D6:M6)/10</f>
         <v>0</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -1627,21 +1201,21 @@
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66">
-        <f t="shared" ref="C8" si="1">SUM(D8:M8)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="68"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -1667,21 +1241,21 @@
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66">
-        <f t="shared" ref="C10" si="2">SUM(D10:M10)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="68"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -1707,21 +1281,21 @@
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66">
-        <f t="shared" ref="C12" si="3">SUM(D12:M12)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -1747,21 +1321,21 @@
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66">
-        <f t="shared" ref="C14" si="4">SUM(D14:M14)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -1787,21 +1361,21 @@
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66">
-        <f t="shared" ref="C16" si="5">SUM(D16:M16)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="68"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -1827,21 +1401,21 @@
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66">
-        <f t="shared" ref="C18" si="6">SUM(D18:M18)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="68"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -1867,21 +1441,21 @@
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66">
-        <f t="shared" ref="C20" si="7">SUM(D20:M20)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="68"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -1904,9 +1478,468 @@
       <c r="M21" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
+  <mergeCells count="4">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800B56EF-4C6A-F944-B910-28526DEF1789}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView zoomScale="137" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="12" width="4.6640625" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="68"/>
+      <c r="G3" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="68"/>
+      <c r="I3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="69"/>
+      <c r="K3" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="69"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="106" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="66">
+        <v>10</v>
+      </c>
+      <c r="E5" s="66">
+        <v>5</v>
+      </c>
+      <c r="F5" s="66">
+        <v>15</v>
+      </c>
+      <c r="G5" s="66">
+        <v>5</v>
+      </c>
+      <c r="H5" s="66">
+        <v>15</v>
+      </c>
+      <c r="I5" s="66">
+        <v>20</v>
+      </c>
+      <c r="J5" s="66">
+        <v>20</v>
+      </c>
+      <c r="K5" s="66">
+        <v>5</v>
+      </c>
+      <c r="L5" s="66">
+        <v>5</v>
+      </c>
+      <c r="M5" s="64"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60">
+        <f t="shared" ref="C6:C21" si="0">SUM(D6:M6)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60">
+        <f t="shared" ref="C8" si="1">SUM(D8:M8)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60">
+        <f t="shared" ref="C10" si="2">SUM(D10:M10)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60">
+        <f t="shared" ref="C12" si="3">SUM(D12:M12)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60">
+        <f t="shared" ref="C14" si="4">SUM(D14:M14)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60">
+        <f t="shared" ref="C16" si="5">SUM(D16:M16)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60">
+        <f t="shared" ref="C18" si="6">SUM(D18:M18)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60">
+        <f t="shared" ref="C20" si="7">SUM(D20:M20)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1915,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A10" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1937,54 +1970,54 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>50</v>
+      <c r="D3" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="24" customFormat="1" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" s="24" customFormat="1" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45" t="s">
-        <v>62</v>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="24" customFormat="1" ht="32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1992,7 +2025,7 @@
       <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="12"/>
@@ -2012,16 +2045,16 @@
       <c r="C9" s="15">
         <v>5</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>53</v>
+      <c r="D9" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B10" s="15">
         <v>20</v>
@@ -2029,168 +2062,186 @@
       <c r="C10" s="15">
         <v>15</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>54</v>
+      <c r="D10" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="17">
+        <v>5</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>20</v>
+      </c>
+      <c r="C14" s="19">
+        <v>15</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="65" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="74">
+        <v>15</v>
+      </c>
+      <c r="C17" s="74">
+        <v>20</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A18" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="77">
+        <v>15</v>
+      </c>
+      <c r="C18" s="77">
+        <v>20</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="48">
+        <v>5</v>
+      </c>
+      <c r="C21" s="48">
+        <v>5</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="38">
-        <v>15</v>
-      </c>
-      <c r="C11" s="38">
-        <v>20</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="17">
+    <row r="22" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="48">
         <v>5</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C22" s="48">
         <v>5</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D22" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="44">
+        <f>1+SUM(B8:B22)/10</f>
+        <v>10</v>
+      </c>
+      <c r="C24" s="44">
+        <f>1+SUM(C8:C22)/10</f>
+        <v>10</v>
+      </c>
+      <c r="D24" s="45" t="s">
         <v>56</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="19">
-        <v>20</v>
-      </c>
-      <c r="C15" s="19">
-        <v>15</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="17">
-        <v>15</v>
-      </c>
-      <c r="C16" s="17">
-        <v>20</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="33" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="50">
-        <v>5</v>
-      </c>
-      <c r="C19" s="50">
-        <v>5</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="50">
-        <v>5</v>
-      </c>
-      <c r="C20" s="50">
-        <v>5</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="46">
-        <f>1+SUM(B8:B20)/10</f>
-        <v>10</v>
-      </c>
-      <c r="C22" s="46">
-        <f>1+SUM(C8:C20)/10</f>
-        <v>10</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2200,14 +2251,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b60b54a5-8c6f-478f-98ee-5d9fe6b7961c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8d379a18-3696-460b-b6bd-f03ca624bc37" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2440,27 +2489,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b60b54a5-8c6f-478f-98ee-5d9fe6b7961c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8d379a18-3696-460b-b6bd-f03ca624bc37" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5DA4053-2AF6-4A75-820B-D9AC6D228E51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{142A6AD0-5AEB-408A-90AA-477FC3B48F2C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b60b54a5-8c6f-478f-98ee-5d9fe6b7961c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8d379a18-3696-460b-b6bd-f03ca624bc37"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2485,9 +2527,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{142A6AD0-5AEB-408A-90AA-477FC3B48F2C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5DA4053-2AF6-4A75-820B-D9AC6D228E51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b60b54a5-8c6f-478f-98ee-5d9fe6b7961c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8d379a18-3696-460b-b6bd-f03ca624bc37"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>